--- a/output/Total_time_range_data/山东省/滨州市_学习考察.xlsx
+++ b/output/Total_time_range_data/山东省/滨州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,958 +436,1050 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>143</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>市人大常委会党组扩大会议召开</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/25/art_114214_10553022.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['6月24日下午，市人大常委会党组召开扩大会议。市人大常委会主任、党组书记马俊昀主持会议并讲话。', '会议集体学习了习近平总书记在《求是》杂志发表的重要文章《开创我国高质量发展新局面》，传达了市委十届六次全体会议和近期市委常委会会议精神，学习了《中华人民共和国固体废物污染环境防治法》有关内容，听取了各专委会和常委会工作机构5月份工作总结和6月份工作安排的汇报，还研究了其他事项。', '会议要求，要立足人大职责定位，主动担当作为，为构建新发展格局、推动高质量发展贡献人大力量；要聚焦市委十届六次全会提出的目标任务，对标习近平总书记对山东工作的总定位、新要求，坚定扛牢“走在前、挑大梁”的使命担当，找准人大工作落实全会精神的结合点、着力点和创新点，全力推进重点项目建设，加快推行“八个四工作法”，全面助力提升“八大品质”，为谱写中国式现代化最美滨州篇章增光添彩。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>143</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组进行年度第次集体学习研讨</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/26/art_114214_10557027.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 市政协党组理论学习中心组进行2024年度第6次集体学习研讨', '6月25日，市政协党组理论学习中心组进行2024年度第6次集体学习研讨，学习贯彻习近平总书记视察山东重要讲话精神，并作交流发言。市政协党组书记、主席范连生作总结发言，并作专题宣讲。', '范连生强调，要提升站位、深化认识，做好“悟”的文章。紧密结合实际，深刻感悟习近平总书记视察山东重要讲话的重大意义、核心要义、实践要求，真正把习近平总书记重要讲话精神和省委、市委部署要求不折不扣落到实处。要强化引领、凝心聚力，做好“统”的文章。坚持领导带头学，发挥示范引领作用，带头学深悟透精神实质、内涵要求。坚持丰富形式学，发挥界别同心汇、委员读书等平台载体作用，真正做到深学深用、知行合一。坚持宣传宣讲学，结合“联心汇智助力攻坚”等委员活动，凝聚起感恩奋进、团结奋斗的强大力量。要找准坐标、履职尽责，做好“实”的文章。在找准契合点、切入点上下功夫，围绕构建全方位高水平对外开放新格局、打造现代物流体系、推动生态产品价值实现、激发青年科技人才创新活力、“12161”民生实事落实等重要问题，努力提出有价值、有深度的意见建议。在推进年度协商计划上下功夫，着力抓好26项重点协商计划实施，为市委、市政府科学决策、有效施策提供高质量“政协方案”。在提升双向发力成效上下功夫，把凝聚共识贯穿到理论学习、视察调研、协商议政等履职活动中，扎实做好强信心、聚人心、筑同心的工作。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>全国科技大会国家科学技术奖励大会两院院士大会在京召开习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/26/art_266228_10553076.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['滨州市人民政府 重要信息 全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话强调，科技兴则民族兴，科技强则国家强。中国式现代化要靠科技现代化作支撑，实现高质量发展要靠科技创新培育新动能。必须充分认识科技的战略先导地位和根本支撑作用，锚定2035年建成科技强国的战略目标，加强顶层设计和统筹谋划，加快实现高水平科技自立自强', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平出席大会并发表重要讲话。新华社记者 姚大伟 摄', '新华社北京6月24日电 全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会24日上午在人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平出席大会，为国家最高科学技术奖获得者等颁奖并发表重要讲话。他强调，科技兴则民族兴，科技强则国家强。中国式现代化要靠科技现代化作支撑，实现高质量发展要靠科技创新培育新动能。必须充分认识科技的战略先导地位和根本支撑作用，锚定2035年建成科技强国的战略目标，加强顶层设计和统筹谋划，加快实现高水平科技自立自强。', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。习近平、李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希等出席大会。新华社记者 谢环驰 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平向获得2023年度国家最高科学技术奖的武汉大学李德仁院士（右）和清华大学薛其坤院士（左）颁奖。新华社记者 鞠鹏 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平向获得2023年度国家最高科学技术奖的武汉大学李德仁院士颁奖。新华社记者 谢环驰 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平向获得2023年度国家最高科学技术奖的清华大学薛其坤院士颁奖。新华社记者 谢环驰 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平向获得2023年度国家最高科学技术奖的武汉大学李德仁院士颁奖。新华社记者 鞠鹏 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。中共中央总书记、国家主席、中央军委主席习近平向获得2023年度国家最高科学技术奖的清华大学薛其坤院士颁奖。新华社记者 鞠鹏 摄', '仪式号角响起，习近平首先向获得2023年度国家最高科学技术奖的武汉大学李德仁院士和清华大学薛其坤院士颁发奖章、证书，同他们热情握手表示祝贺。随后，习近平等党和国家领导人同两位最高奖获得者一道，为获得国家自然科学奖、国家技术发明奖、国家科学技术进步奖和中华人民共和国国际科学技术合作奖的代表颁发证书。', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。这是习近平等党和国家领导人同两位最高奖获得者一道，为获得国家自然科学奖、国家技术发明奖、国家科学技术进步奖和中华人民共和国国际科学技术合作奖的代表颁发证书。新华社记者 鞠鹏 摄', '在热烈掌声中，习近平发表重要讲话。他指出，党的十八大以来，党中央深入推动实施创新驱动发展战略，提出加快建设创新型国家的战略任务，不断深化科技体制改革，有力推进科技自立自强，我国基础前沿研究实现新突破，战略高技术领域迎来新跨越，创新驱动引领高质量发展取得新成效，科技体制改革打开新局面，国际开放合作取得新进展，科技事业取得历史性成就、发生历史性变革。', '习近平强调，在新时代科技事业发展实践中，我们不断深化规律性认识，积累了许多重要经验，主要是：坚持党的全面领导，坚持走中国特色自主创新道路，坚持创新引领发展，坚持“四个面向”的战略导向，坚持以深化改革激发创新活力，坚持推动教育科技人才良性循环，坚持培育创新文化，坚持科技开放合作造福人类。这些经验必须长期坚持并在实践中不断丰富发展。', '习近平指出，世界百年未有之大变局加速演进，新一轮科技革命和产业变革深入发展，深刻重塑全球秩序和发展格局。我国科技事业发展还存在一些短板、弱项，必须进一步增强紧迫感，进一步加大科技创新力度，抢占科技竞争和未来发展制高点。', '习近平强调，要充分发挥新型举国体制优势，完善党中央对科技工作集中统一领导的体制，构建协同高效的决策指挥体系和组织实施体系。充分发挥市场在科技资源配置中的决定性作用，更好发挥政府作用，调动产学研各环节的积极性，形成共促关键核心技术攻关的工作格局。加强国家战略科技力量建设，提高基础研究组织化程度，鼓励自由探索，筑牢科技创新根基和底座。', '习近平指出，要推动科技创新和产业创新深度融合，助力发展新质生产力。聚焦现代化产业体系建设的重点领域和薄弱环节，增加高质量科技供给，培育发展新兴产业和未来产业，积极运用新技术改造提升传统产业。强化企业科技创新主体地位，促进科技成果转化应用。做好科技金融这篇文章。', '习近平强调，要全面深化科技体制机制改革，统筹各类创新平台建设，加强创新资源优化配置。完善区域科技创新布局，改进科技计划管理，提升科技创新投入效能。加快健全符合科研活动规律的分类评价体系和考核机制，完善激励制度，释放创新活力。', '习近平指出，要深化教育科技人才体制机制一体改革，完善科教协同育人机制，加快培养造就一支规模宏大、结构合理、素质优良的创新型人才队伍。优化高等学校学科设置，创新人才培养模式，提高人才自主培养水平和质量。加快建设国家战略人才力量，着力培养造就卓越工程师、大国工匠、高技能人才。加强青年科技人才培养，大力弘扬科学家精神，激励广大科研人员志存高远、爱国奉献、矢志创新。', '习近平强调，要深入践行构建人类命运共同体理念，在开放合作中实现自立自强。深入践行国际科技合作倡议，进一步拓宽政府和民间交流合作渠道，发挥共建“一带一路”等平台作用，支持各国科研人员联合攻关。积极融入全球创新网络，深度参与全球科技治理，共同应对全球性挑战，让科技更好造福人类。', '习近平表示，希望两院院士当好科技前沿的开拓者、重大任务的担纲者、青年人才成长的引领者、科学家精神的示范者，为我国科技事业发展再立新功。广大科技工作者要自觉把学术追求融入建设科技强国的伟大事业，创造出无愧时代、不负人民的新业绩。各级党委和政府要切实加强对科技工作的组织领导，全力做好服务保障。', '李强在主持大会时指出，习近平总书记的重要讲话充分肯定了近年来我国科技创新发展取得的历史性成就，深刻总结了新时代科技事业发展的重要经验，精辟论述了科技创新在推进中国式现代化、实现第二个百年奋斗目标伟大进程中的重要作用，系统阐明了新形势下加快建设科技强国的基本内涵和主要任务，为做好新时代科技工作指明了前进方向，要深入学习领会、认真贯彻落实。新征程上，实现高水平科技自立自强、建设科技强国使命光荣、责任重大，要更加紧密地团结在以习近平同志为核心的党中央周围，全面贯彻习近平新时代中国特色社会主义思想，进一步增强做好科技工作的自觉性和坚定性，为以中国式现代化全面推进强国建设、民族复兴伟业而团结奋斗。', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。会前，习近平等领导同志亲切会见国家科学技术奖获奖代表，并同大家合影留念。新华社记者 谢环驰 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。会前，习近平等领导同志亲切会见国家科学技术奖获奖代表。这是习近平同获得2023年度国家最高科学技术奖的武汉大学李德仁院士亲切交流。新华社记者 鞠鹏 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。会前，习近平等领导同志亲切会见国家科学技术奖获奖代表。这是习近平同获得2023年度国家最高科学技术奖的清华大学薛其坤院士亲切交流。新华社记者 鞠鹏 摄', '6月24日，全国科技大会、国家科学技术奖励大会和中国科学院第二十一次院士大会、中国工程院第十七次院士大会在北京人民大会堂隆重召开。会前，习近平等领导同志亲切会见国家科学技术奖获奖代表。新华社记者 谢环驰 摄', '中共中央政治局委员、中央书记处书记，全国人大常委会有关领导同志，国务委员，最高人民法院院长，最高人民检察院检察长，全国政协有关领导同志出席大会。', '各省区市和计划单列市、新疆生产建设兵团，中央和国家机关有关部门、有关人民团体、军队有关单位主要负责同志，两院院士、部分外籍院士，国家科学技术奖获奖代表等约3000人参加大会。', '2023年度国家科学技术奖共评选出250个项目和12名科技专家。其中，国家最高科学技术奖2人；国家自然科学奖49项，其中一等奖1项、二等奖48项；国家技术发明奖62项，其中一等奖8项、二等奖54项；国家科学技术进步奖139项，其中特等奖3项、一等奖16项、二等奖120项；授予10名外国专家中华人民共和国国际科学技术合作奖。', '习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市人大常委会党组及机关党组理论学习中心组举行集体学习研讨</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/25/art_114214_10553020.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 市人大常委会党组及机关党组理论学习中心组举行集体学习研讨', '6月24日，市人大常委会党组及机关党组理论学习中心组举行2024年第7次集体学习研讨，深入学习贯彻习近平总书记关于全面加强党的纪律建设的重要论述，推动党纪学习教育走深走实，为加快品质滨州建设、奋力谱写中国式现代化最美滨州篇章提供坚强保证。市人大常委会主任、党组书记马俊昀主持会议并讲话。', '市人大常委会党组及机关党组理论学习中心组成员在认真自学的基础上，围绕学习主题，结合思想和工作实际，开展了集体学习研讨。', '会议强调，要全面把握习近平总书记关于全面加强党的纪律建设重要论述的科学内涵、核心要义和实践要求，真正把纪律规矩转化为政治自觉、思想自觉、行动自觉，确保党纪学习教育走深走实。要注重融合共促，将党纪学习教育与深入学习贯彻习近平总书记视察山东重要讲话精神相结合，与贯彻落实省委十二届六次全会、市委十届六次全会精神相结合，立足发挥人大职能作用，主动认领工作任务，认真谋划落实举措。要加强组织领导，强化责任落实，高标准高质量完成党纪学习教育各项工作任务，推动党纪学习教育取得明显成效。', '郝吉虎、栾兴刚、郑玉梅、王庆霞、刘卫忠及机关党组成员出席会议；王方正、市人大各专门委员会和常委会工作机构主要负责同志等列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>143</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>马俊昀带队到泰安德州学习考察立法工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/24/art_114214_10552979.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['近日，市人大常委会主任马俊昀带领考察组到泰安、德州两市，学习考察生活垃圾分类管理立法以及生态文明建设、历史文化保护等方面立法的经验做法。 在泰安市，考察组先后到岱道庵社区、洪沟家园社区、泰诚垃圾分类宣教中心、岱下明珠小区等实地察看，听取生活垃圾分类宣传、分类投放、分类运输等工作情况介绍；走进泰安市人大机关参观学习，与泰安市人大有关负责同志进行座谈交流，详细了解生活垃圾分类管理立法、人大机关建设等方面工作的经验做法。 在德州市，考察组先后到光大宣教基地、澳林·湖畔花园等实地察看，详细了解生活垃圾分类处理等情况；召开座谈会，深入交流了生活垃圾分类管理立法和生态文明建设、历史文化保护等方面立法的典型做法和经验。 考察组认为，泰安、德州两市在生活垃圾分类管理立法等方面有许多创新性探索，取得了良好效果，经验做法值得学习。要结合滨州实际，认真研究、学习借鉴，继续修改完善生活垃圾分类管理条例草案，努力使法规立得住、行得通、真管用。希望与两市人大进一步加强联系、强化交流，互学互鉴、互促互进，共同推动地方立法工作不断取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>143</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/24/art_114214_10552978.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['6月22日下午，市委常委会召开会议，学习习近平总书记对防汛抗旱工作作出的重要指示精神，按照省委、省政府扎实做好我省防汛抗旱工作要求，研究贯彻落实意见。市委书记宋永祥主持会议并讲话。 会议指出，当前我市即将进入主汛期，正值夏播出苗的关键期，持续高温少雨，面临旱涝急转的形势。各级各部门要坚决贯彻习近平总书记重要指示精神，认真落实省委、省政府扎实做好我省防汛抗旱工作要求，进一步强化风险意识、底线思维，动员一切可以动员的力量，挖掘一切可以挖掘的资源，迅速全面做好防汛抗旱各项工作，全力保障群众生命财产安全。要坚持防汛抗旱两手抓，强化预报、预判、预警、预案、预演“五预”衔接，建立分层推进、分工协作、分项排查、分类管理、分析研判、分级预警、分情化解、分步处置、分秒预演、分区督导“十分机制”，加强防范应对，坚决防止旱涝交替、旱涝急转。积极应对高温旱情，扎实做好抗旱保夏种、促夏管工作，强化水资源统一调度，合理分水调水，有序引水灌溉，尽最大努力减少旱情影响，优先保障城乡生活用水安全。积极抓好防汛备汛，要利用好主汛期前的有限时间，持续做好隐患排查整治，确保河道、水库、城市和企业防汛安全。各部门单位要加强协同配合，衔接好“防”与“救”的责任链条，确保防汛抗旱措施落实到位，严格执行应急值守制度，完善各类应急预案，抓好人员准备、物资储备，共同打赢防汛抗旱硬仗。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>143</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/20/art_266228_10552851.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['滨州市人民政府 重要信息 习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学食堂察看学生就餐条件。 新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学宿舍楼察看学生住宿条件。 新华社记者 岳月伟 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。 新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。 新华社记者 鞠鹏 摄', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。 新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。 新华社记者 岳月伟 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。 新华社记者 燕雁 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，向师生们挥手致意。 新华社记者 鞠鹏 摄', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。 新华社记者 翟健岚 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。 新华社记者 谢环驰 摄', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>143</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>滨州市金融妇联企业支持三大战役工作推进会召开</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/20/art_114214_10552784.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 滨州市“金融+妇联+企业”支持“三大战役”工作推进会召开', '6月18日，滨州市“金融+妇联+企业”支持“三大战役”工作推进会召开。市委副书记刘忠远出席会议并讲话。', '刘忠远指出，在全市上下深入学习贯彻习近平总书记考察山东重要讲话精神之际，市妇联、人行滨州分行联合召开“金融+妇联+企业”支持“三大战役”工作推进会，通过金融机构、职能部门、女企业家等各方面沟通交流、有效对接，推进产业与金融深度融合，助力广大女性创新创业，踊跃投身招商引资、项目建设、工业经济“三大战役”，为全市经济社会发展增添动力。', '刘忠远强调，金融是国民经济的血脉，是推动企业高质量发展的重要保障。各金融机构要充分发挥服务实体经济源头活水作用，持续探索、不断创新金融产品及服务模式，支持全市经济社会发展。全市妇联组织作为广大女性的贴心“娘家人”，要充分发挥引领、联系、服务的职能优势，精准掌握妇女“双创”融资需求，主动协调当地金融机构、职能部门，为妇女群体搭建优质高效的金融、政策服务平台，为女企业家创新创业赋能增势。', '会上，人行滨州分行介绍了创新金融服务支持妇女创业就业情况并发布金融政策包，女企业家代表分享了企业成长经验和参与发展作为，市科技局、人社局、农业农村局相关负责人分别宣讲了惠企政策，部分金融机构介绍了特色产品及服务等。市女企业家创业创新协会与3家金融机构现场签订战略合作框架协议。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>143</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>全市两优一先表彰大会召开</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/20/art_114214_10552782.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['6月19日，全市“两优一先”表彰大会在滨州召开，深入学习贯彻习近平总书记视察山东重要讲话精神，弘扬建党精神、表彰先进典型、汇聚奋进力量，动员全市各级党组织和广大党员干部，坚定扛牢“走在前、挑大梁”使命担当，奋力谱写中国式现代化最美滨州篇章。市委书记宋永祥出席会议并讲话，市委副书记、市长李春田主持，市委副书记刘忠远出席。', '宋永祥代表市委向全市为革命、建设和改革发展事业作出贡献的老党员、老同志致以崇高敬意，向受到表彰的优秀个人和先进集体表示热烈祝贺，向奋战在各条战线上的广大党员致以诚挚问候！他指出，受表彰的优秀共产党员、优秀党务工作者和先进基层党组织是我市各条战线、各个领域的优秀代表，各级党组织和广大党员干部要以先进典型为榜样，向优秀代表学习，更好发挥基层党组织战斗堡垒作用和党员先锋模范作用，在谱写中国式现代化最美滨州篇章征程中，彰显更强担当、展现更大作为。', '宋永祥强调，要筑牢忠诚之魂，坚定不移“听党话、跟党走”，做到信念坚定、意志坚强、行动坚决，坚定拥护“两个确立”、坚决做到“两个维护”，确保党中央决策部署和省委工作要求在滨州落地落实。要扛牢发展之责，坚定不移扛牢“走在前、挑大梁”使命担当。扛牢经济发展担当，完整准确全面贯彻新发展理念，加快发展新质生产力，加快推进新型工业化，加快建设现代化产业体系。扛牢改革发展担当，坚持以开放倒逼改革、用改革推动发展，推进好高水平改革创新，构建好高能级开放通道，打造好高层次开放载体，切实以大开放、大改革推动大发展。扛牢安全发展担当，坚持高质量发展和高水平安全良性互动，持续做好社会治理、法智护航、风险防范等各项工作，确保全市社会大局安全稳定。', '宋永祥要求，要树牢为民之心，坚定不移“惠民生、增福祉”，坐到群众炕头，深入基层一线听民声，想到群众心头，聚焦“急难愁盼”谋良策，干到群众点头，突出可感可及暖民心，穷尽智慧织好网、兜好底、办好事，让老百姓的日子一天更比一天好。要守牢勤廉之本，坚定不移“强党性、作表率”，以强烈的自我革命精神和刀刃向内勇气，坚决做到严于律己、严负其责、严管所辖，严出好作风，严出战斗力，严出优生态，引导广大党员干部扛牢责任、履职到位、转变思维、把事干好，持续营造风清气正的政治生态。', '李春田在主持时强调，要学习先进典型，汲取奋进力量，学习好、挖掘好、宣传好先进典型的感人事迹，让先进精神在滨州大地汇聚起干事创业的澎湃动力，为推动全市高质量发展凝聚强大的精神力量。要弘扬奋斗精神，勇于担当作为，把先进精神融入日常工作中，忠实履职尽责，打好“三大战役”，在加快建设品质滨州的新征程上创造新业绩、铸就新辉煌。要强化示范带动，营造实干氛围，充分发挥先进典型引领作用，动员广大党员干部切实把学先进、学典型、学榜样激发出来的精神动力，转化为爱岗敬业、干事创业、建功立业的责任担当，汇聚起全市上下团结奋斗的磅礴伟力，奋力谱写中国式现代化最美滨州篇章，以优异成绩庆祝建党103周年。', '会上，宋永祥为“光荣在党50年”老党员代表颁发纪念章，刘忠远宣读了《关于表彰滨州市优秀共产党员、优秀党务工作者和先进基层党组织的决定》，与会领导为优秀共产党员代表、优秀党务工作者代表、先进基层党组织代表颁奖。中裕食品有限公司党委书记、副总经理付蕊，阳信县翟王镇西朱村党支部书记、村委会主任朱洪岩，市公安局特巡警支队副支队长、三大队机关党支部书记、大队长徐胜利分别代表优秀共产党员、优秀党务工作者、先进基层党组织作了发言。', '参加会议的还有：市委常委，市人大常委会、市政府、市政协党组成员，市中级法院、市检察院党组书记，驻滨高校和市属职业院校党委负责同志，各县市区委书记、组织部部长，各市属开发区党工委、管委会主要负责同志、组织部部长，市直各部门单位、市属国有企业、中央和省驻滨单位党员主要负责同志，“两优一先”代表和“光荣在党50年”老党员代表。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>143</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组举行年度第次集体学习研讨</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/19/art_114214_10557021.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 市政府党组理论学习中心组举行2024年度第6次集体学习研讨', '6月18日下午，市政府党组理论学习中心组举行2024年度第6次集体学习研讨。市委副书记、市长李春田主持并讲话，市政府党组理论学习中心组成员参加，副市长杜玉杰列席。', '市政府党组理论学习中心组成员集体学习了习近平总书记视察山东重要讲话重要指示精神，联系思想和工作实际进行了深入交流研讨。', '李春田指出，要深切感悟深情厚望，坚决做到紧跟紧随。要从坚定捍卫“两个确立”、坚决做到“两个维护”的政治高度，切实把思想和行动统一到习近平总书记重要讲话精神上来，把学习好、宣传好、贯彻好习近平总书记重要讲话精神作为重大政治任务，带头深学细悟、带头宣传宣讲、带头深入调研、带头真抓实干，确保习近平总书记重要讲话精神在滨州创造性贯彻落实、创新性转化发展。', '李春田强调，要深刻领会定位要求，坚决做到勇争一流。要深刻领会习近平总书记对山东工作的总定位、新要求，增强真信笃行、感恩奋进的思想自觉，增强争先向前、唯旗是夺的使命自觉，坚持发展为要、实干当先、勇争一流，聚焦大开放、大改革、大发展，深入开展“三大战役”，加快建设品质滨州，坚决在“继续走在前”的使命担当中作出滨州贡献。', '李春田要求，要深入落实目标任务，坚决做到实干担当。要以最诚挚的感情、最有力的举措抓好习近平总书记重要讲话精神的贯彻落实，逐条逐项梳理，谋深谋实举措。要紧抓当前、抓好当前，扎实做好经济社会发展各项工作，努力实现上半年高质量“双过半”。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>143</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>张新文来滨宣讲习近平总书记视察山东重要讲话精神</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/5/art_114214_10557039.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['7月3日—4日，省政协副主席张新文来滨宣讲习近平总书记视察山东重要讲话精神，开展海洋高质量发展专项调研。市政协主席范连生陪同。', '张新文一行到滨州市海洋发展研究院、渤海先进技术研究院、魏桥国科（滨州）科技园、渤海活塞有限公司、沾化冬枣·界别同心汇、沾化冬枣研究所进行了实地调研，并在沾化冬枣·界别同心汇宣讲习近平总书记视察山东重要讲话精神。', '张新文在宣讲中指出，习近平总书记视察山东重要讲话精神主题鲜明、一脉相承、厚望如山，为我省发展掌舵定向，是山东发展历史上具有重要里程碑意义的一件大事，要全面、系统、准确学习领会重要讲话重要指示精神，增强“走在前、挑大梁”思想自觉、行动自觉。要感恩奋进、善作善成，以抓铁有痕的韧劲推动重要讲话重要指示精神落地落实。推进科技创新与产业创新深度融合，有的放矢、聚焦发力，重点是解决基础研究往哪里走、科研成果往哪里去、企业创新主体作用如何发挥三个导向问题。打造核能产业高地，朝着尽快形成全国最大核电生产基地的方向努力，统筹加快核能产业集群建设，聚力提升核能自主创新能力。全力打造世界级海洋港口群，通过顶层设计引领港口高质量发展，在放大港口战略支点作用上做文章，通过港产城融合发展增强支撑作用，加速提升港口智慧化绿色化水平。要强化担当、主动作为，发挥政协作用助力习近平总书记视察山东重要讲话精神落地生根。先学一步、深学一层，争做深学细悟笃信的模范践行者。主动作为、献计献策，争做服务中心大局的模范践行者。发挥特色、放大优势，争做聚共识鼓干劲的模范践行者，为实现“走在前、挑大梁”、谱写中国式现代化山东篇章贡献政协力量。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>143</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>范华平带队来滨州市开展执法检查</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-07-04</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/4/art_114214_10553544.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['7月2日至3日，省人大常委会副主任范华平带领执法检查组来我市就《山东省宗教事务条例》贯彻实施情况开展执法检查。省人大民侨外委员会主任委员刘贵堂、副主任委员孙可奇参加；市人大常委会主任马俊昀陪同。', '执法检查组一行到邹平范公祠、滨州清河殿、滨州清真寺等处实地检查；召开座谈会，听取了市人大常委会、市政府和有关部门的情况汇报及意见建议。', '范华平对我市宗教工作和贯彻实施《山东省宗教事务条例》情况给予充分肯定。他指出，滨州的宗教工作党委政府领导有力，人大监督有方，各部门齐抓共管，依法履职，在工作中有创新、有亮点。要深入学习贯彻习近平总书记关于宗教工作的重要论述和视察山东重要讲话精神，深刻认识做好宗教工作在党和国家工作全局中的重要性，切实把思想和行动统一到党中央关于新时代宗教工作决策部署上来。', '范华平指出，要牢牢把握正确政治方向，加强理论武装，不断巩固推进宗教中国化，引导宗教与社会主义社会相适应，与优秀中国传统文化相结合。宗教工作的本质是群众工作，必须认真贯彻党的群众路线。做到宣传教育在平时、管理服务在平时、联系信教群众和广交朋友在平时、解决问题在平时。要加强法治宣传，依法压实责任，抓好问题整改，扎实推进法律法规的贯彻落实，不断提高宗教工作的法治化水平，为奋力谱写中国式现代化山东篇章作出贡献。 省人大常委会办公厅二级巡视员鲁成岩，省民族宗教委副主任罗军，我市领导王方正、张瑞杰、刘卫忠等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>143</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>中共山东百年历史图片展走进滨州纪念渤海区成立周年图片展启动仪式同时举行</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/28/art_114214_10553262.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 中共山东百年历史图片展走进滨州 纪念渤海区成立80周年图片展启动仪式同时举行', '6月27日，中共山东百年历史图片展走进滨州暨纪念渤海区成立80周年图片展启动仪式在山东航空学院举行。省委党史研究院副院长徐波，市委常委、宣传部部长冷兴邦，山东航空学院党委副书记、校长李伟年出席仪式并致辞。', '今年以来，滨州市委党史研究院活化利用丰富的红色文化资源，高标准谋划纪念渤海区成立80周年系列活动，深入挖掘“老渤海革命传统”的深刻内涵和现实意义，为全省“铭记奋斗历程勇担历史使命”主题活动增添了滨州特色和亮点。活动要求，各级各部门要以此次主题活动为契机，在党史学习教育、社会科学课题研究及成果转化等方面继续深化合作。此次我市举办主题图片展，将对深化渤海区党史研究、提升滨州红色文化影响力产生积极推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>143</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>住鲁全国人大代表来滨开展重点专题调研</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/5/art_114214_10553599.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月3日至5日，山东省人大常委会副主任、党组副书记王良带领部分住鲁全国人大代表来滨，就深入实施黄河流域生态保护和高质量发展重大战略情况以及黄河保护法实施情况进行调研。全国人大代表、省住房和城乡建设厅厅长王玉志；市委书记宋永祥，市委副书记、市长李春田，市人大常委会主任马俊昀参加有关活动。', '在重点专题调研座谈会上，王良指出，全省各级各有关部门要深入学习贯彻习近平总书记关于黄河流域生态保护和高质量发展的重要指示精神，坚持实干创新、对标对表、对外开放、深化改革，主动融入和服务重大国家战略。要不断弘扬宣传黄河文化，持续深挖黄河文化内涵，集聚代表力量，共同唱好“黄河大合唱”。各位代表要一以贯之、持之以恒地贯彻落实党中央决策部署、全国人大有关要求和省委工作安排，依法履行代表职责，通过参与专题调研、执法检查等方式，围绕黄河流域保护治理提出高质量议案建议，为推动黄河重大国家战略取得更大成绩贡献力量。', '宋永祥代表市委、市政府向各位代表的到来表示欢迎，对大家长期以来给予滨州的关心支持表示感谢，并向住鲁全国人大代表简要介绍了滨州市情和经济社会发展情况。他说，滨州市产业、产品、企业、科创、平安的味道“五味俱全”，培育了高端铝业、精细化工、智能纺织、食品加工、畜牧水产五大千亿级优势产业集群，有53项产品产能、产量或市场占有率列全球或全国第一位，全社会研发投入占比连续三年位居全省首位。近年来，滨州市深入学习贯彻习近平总书记对山东工作的重要指示精神，坚决扛牢推动黄河领域生态保护和高质量发展政治责任，深入推进产业结构从传统动能向新动能转变，能源结构从偏煤向绿色能源转变，运输结构从偏公路向多式联运转变，用地结构从散而低效向集约高效利用转变，奋力打造黄河流域生态保护和高质量发展“滨州样板”。滨州市将认真落实习近平总书记视察山东重要讲话精神，突出“大开放、大改革、大发展”，打好招商引资、项目建设、工业经济“三大战役”，坚定走好生态优先、绿色发展之路，全力落实黄河重大国家战略，全力推动品质滨州建设，为谱写中国式现代化山东篇章作出滨州贡献。', '调研期间，住鲁全国人大代表先后到打渔张引黄闸及打渔张森林公园、香驰控股有限公司、博兴县市民文化中心、渤海先进技术研究院、黄河小街湾、黄河楼、黄河三角洲小麦产业馆等地进行实地调研，详细了解我市生态保护治理、保障黄河安澜、产业转型升级等情况。代表们认为，滨州市坚持把落实黄河重大国家战略摆在突出位置，系统谋划、全力推进，取得重要阶段性成效。大家一致表示，将坚持集思广益、群策群力，继续推动调研活动走深走实，把调研成果梳理好、总结好、运用好，共同凝聚推动黄河流域生态保护和高质量发展的强大合力。', '省人大城环委副主任委员李力，省人大常委会副秘书长姚潜迅，市领导丁锋、郝吉虎、刘卫忠等参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>143</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>习近平在中共中央政治局第十五次集体学习时强调贯彻落实新时代党的建设总要求进一步健全全面从严治党体系</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/28/art_266228_10553269.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['滨州市人民政府 重要信息 习近平在中共中央政治局第十五次集体学习时强调 贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '习近平在中共中央政治局第十五次集体学习时强调 贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '新华社北京6月28日电 中共中央政治局6月27日下午就健全全面从严治党体系进行第十五次集体学习。中共中央总书记习近平在主持学习时强调，新时代党的建设是以党的政治建设为统领、党的各项建设同向发力综合发力的系统工程，必须以党中央关于党的建设的重要思想、关于党的自我革命的重要思想为根本遵循，坚持和加强党的全面领导和党中央集中统一领导，贯彻落实新时代党的建设总要求，用系统思维、科学方法推进管党治党内容全涵盖、对象全覆盖、责任全链条、制度全贯通，进一步健全要素齐全、功能完备、科学规范、运行高效的全面从严治党体系。', '中央组织部秘书长张景虎同志就这个问题进行讲解，提出工作建议。中央政治局的同志认真听取讲解，并进行了讨论。', '习近平在听取讲解和讨论后发表了重要讲话。他首先表示，再过几天就是我们党103周年诞辰，我代表党中央，向全国广大共产党员致以节日的问候！', '习近平指出，党的十八大以来，我们坚定不移推进全面从严治党，取得一系列理论创新、实践创新、制度创新成果，构建起全面从严治党体系，开辟了百年大党自我革命新境界。同时也要看到，党面临的“四大考验”、“四种危险”将长期存在，全面从严治党永远在路上，党的自我革命永远在路上。全党必须永葆“赶考”的清醒和坚定，以健全全面从严治党体系为有效途径，不断把新时代党的建设新的伟大工程推向前进。', '习近平强调，要健全上下贯通、执行有力的组织体系。坚持党中央权威和集中统一领导，完善党中央重大决策部署落实机制，确保党中央政令畅通、令行禁止。坚持和完善党建工作领导体制和组织管理体制，形成一级抓一级、抓好本级带下级、大抓基层强基础的工作格局，推动各层级各领域党组织全面过硬。大力推进党建引领基层治理，持续整顿软弱涣散基层党组织，切实提高基层党组织领导基层治理能力。探索加强新经济组织、新社会组织、新就业群体党建工作，创新党组织设置和活动方式。善于运用互联网技术和信息化手段开展党建工作，努力实现党的组织和党的工作线下线上全覆盖。', '习近平指出，要健全固本培元、凝心铸魂的教育体系。必须抓好思想建设这个基础，坚持不懈推进党的创新理论武装，持之以恒加强党性教育。坚持经常性教育和集中性教育、理论武装和实践运用、强党性和增本领相结合，健全落实以学铸魂、以学增智、以学正风、以学促干长效机制。以正在开展的党纪学习教育为契机，引导党员、干部把增强党性、严守纪律、砥砺作风贯通起来，融入日常、化为习惯。', '习近平强调，要健全精准发力、标本兼治的监管体系。必须坚持党性党风党纪一起抓、治病强身相结合，改进党员管理机制，完善从严管理监督干部机制，健全正风肃纪常态化机制，完善一体推进不敢腐、不能腐、不想腐工作机制。坚持党的自我监督和人民监督相结合，促进各类监督贯通协调，健全党统一领导、全面覆盖、权威高效的监督体系。着力抓好政治监督、领导班子特别是“一把手”监督、“三重一大”事项监督以及权力集中、资金密集、资源富集等重点领域的监督，切实让特权现象和腐败问题无所遁形。', '习近平指出，要健全科学完备、有效管用的制度体系。必须加强系统集成，使制度建设与管党治党需要相适应、与党的各项建设相配套，全方位织密制度的笼子。深化党内法规制度建设改革，做好顶层设计、查漏补缺、提质增效文章，面向实践需要，及时将好经验好做法上升为制度，着力提高制度执行力，推动全面从严治党在法规制度轨道上向纵深发展。', '习近平强调，要健全主体明确、要求清晰的责任体系。必须分层分类建立健全责任体系，推动各级党组织和广大党员、干部知责、担责、履责。明确党委（党组）全面从严治党主体责任，明确各级纪委的监督责任，明确党委（党组）书记第一责任人责任，明确领导班子成员的管党治党责任，明确党员、干部的具体责任。健全精准科学的问责机制，层层传导压力，以责任主体到位、责任要求到位、考核问责到位，推动管党治党责任落实到位。', '习近平最后指出，健全全面从严治党体系、深入推进全面从严治党，中央政治局的同志要带好头、当表率，严于律己、严负其责、严管所辖，团结带领全党把党治理好、建设强，为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强保障。', '中共中央政治局召开会议 讨论拟提请二十届三中全会审议的文件 中共中央总书记习近平主持会议']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>143</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>张新文来滨开展包案化解工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-07-04</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/4/art_114214_10557034.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['7月3日，省政协副主席张新文来滨开展包案化解工作，听取有关县（市、区）情况汇报，与部分包案信访群众“面对面”沟通交流，并在市信访局现场接访。市委副书记、市长李春田，市政协主席范连生参加。', '张新文对我市信访工作取得的成效和包案信访事项化解进展给予充分肯定。他指出，滨州市县（区）两级高度重视信访工作，包案化解方法得当、依法依规，既解决了当前显著问题，又避免了类似问题的发生，信访工作连续多年走在全省前列。', '张新文强调，要深入学习贯彻习近平总书记关于加强和改进人民信访工作的重要思想和视察山东重要讲话精神，站稳人民立场，厚植为民情怀，摸清群众诉求，真正把工作做到群众心坎上。要下大力气化解重点领域信访突出问题，把群众工作做深做实做透，努力将矛盾纠纷化解在萌芽状态，维护好人民群众的根本利益，确保社会大局稳定。要以《信访工作条例》为基本遵循，依法依规办事，用心用情解难，用法治思维和法治方式做好新时代信访工作，推动信访工作高质量发展。', '省政协常委、委员活动工作室主任、机关党组成员李锋，省信访局副局长释君光；我市领导孙学森、李荣舜等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>143</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>年第二季度政府网站和政务新媒体检查情况</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/28/art_167623_10553483.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['第二季度，全市深入贯彻落实国务院办公厅、省政府办公厅关于政府网站和政务新媒体管理工作要求，并根据《关于2024年第一季度全省政府网站和政务新媒体检查情况的通报》举一反三，整改提升，全市政府网站和政务新媒体保持安全、稳定、健康运行。按照政府网站和政务新媒体常态化监管工作要求，对全市政府网站和政务新媒体开展了全面自查。现将我市第二季度政府网站和政务新媒体自查情况报告如下：', '从自查情况看，我市各级各部门认真贯彻国务院关于《政府网站与政务新媒体检查指标》和省政府办公厅《关于进一步规范政府系统政务新媒体建设管理工作的意见》，边整改、边提升，尤其是针对第一季度日常监测反馈的问题进行了全面整改和问题复核，提高整改时效，整改率100%。监管力度不断强化，网站功能不断优化，全市政府网站和政务新媒运行质量明显提升。', '截至目前，我市纳入全国政府网站信息报送系统管理的政府网站49个。通过日常排查和信息化检测，对纳入监管的政府网站进行了全覆盖检查、自查，第二季度共整改错敏信息3644条，处理涉及隐私信息26311条，收到“政府网站找错留言”6条，办结率100%，办结实效小于1天。通过对全市政府网站全覆盖检查，政府网站合格率达到了100%，全市政府网站保持健康、安全、稳定运行。', '截至目前，我市纳入全国政务新媒体信息报送系统管理的政务新媒体311个，第二季度我市继续推进政务新媒体“瘦身提质”工作，注销关停标准不高、维护不力、社会关注度不高新媒体账号17个,本年度累计注销政务新媒体账号55个。整改政务新媒体错敏信息265条。全市政务新媒体总体保持健康、安全、稳定运行。', '积极转发、能发尽发，落实省政府办公厅100%转发工作要求，第二季度共转载、转发国家重要信息18篇，转发7200余篇次。全市各级各部门政府网站和政务新媒体转发率保持100%。', '深入贯彻国家、省市指尖上的形式主义整治工作部署和要求，不断完善政务新媒体和政务APP监管机制，积极探索利用信息化手段实现一体化、多元化管控。以减压、减负杜绝形式主义为出发点，坚持“点上改”与“面上治”“当下改”与“长久立”相结合。制定工作方案，建立整治台账，明确整改期限，落实治理时效。截至目前，全市保留政务新媒体账号311个，政务APP账号7个。注销关停“僵尸类”、“空壳类”和服务不实、维护不力政务新媒体、APP账号59个。原则上不再使用微信工作群调度安排工作，确有需要的，通过“山东通”实现工作沟通交流。督促解散微信等工作群1200余个，有效遏制了工作群泛滥，实实在在减轻了基层工作负担。', '（一）个别栏目更新不达标。存在应更新长期不更新栏目，主要是政府信息公开专栏确实无信息栏目，已按照网站管理要求研究完善相关栏目信息和优化。', '（二）政务新媒体互动功能不完善。检查测试发现，3个微信公众号互动功能菜单链接打不开、内容长期不更新。', '（三）信息发布审核制度不严谨。通过错敏信息事前检测前置软件系统上线运行，错敏信息频次得到了有效控制，虽然错敏词出现率大幅下降，但个别单位信息发布审核不严的问题依然存在。', '（一）提高站位，完善制度。滨州市严格落实省政府办公厅对政府网站和政务新媒体工作要求，不断完善监管工作机制，配强、配齐专职人员，明确各级责任。按照日排查、周复核、月调度、季汇总等措施抓好不同节点工作任务，采取抓源头、打基础、促整体，环环相扣。严格审核把关，按照“谁制作、谁负责”“谁审核、谁负责”“谁签发、谁负责”的原则，落实“三教三审”工作流程，实现建、管、用“三合一”。', '（二）强化提升，深耕细作。不断加强调度、复核频次，确保查到位、改到位。深入开展调研，专题研究分析，狠抓贯彻落实，进一步提升全市政府网站和政务新媒体监管质量。确保检查合格率、信息转发率、互动留言答复率达到100%。', '（三）开展培训，提升能力。对照国务院办公厅、省政府办公厅印发的有关文件精神，开展学习研究，细化标准。拟于下半年聘请有关专家开展一次全市政府网站和政务新媒体工作培训班，提高管理人员专业素质和业务水平。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>143</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>第三届山东省生态环境监测专业技术人员大比武在滨举行</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/27/art_114214_10557029.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['6月24日至25日，第三届山东省生态环境监测专业技术人员大比武活动在滨州举行。省生态环境厅党组书记、厅长侯翠荣出席开幕式并讲话，市委副书记、市长李春田致辞。', '本届大比武由省生态环境厅、省人力资源社会保障厅、省总工会、团省委、省妇联、省市场监督管理局联合主办，省生态环境监测中心、省核与辐射安全监测中心承办，滨州市人民政府、滨州职业学院协办，省委省直机关工委对本次活动给予大力支持。本届大比武分为生态环境监测综合比武和辐射专项比武，设实验分析、污染源监测、应急监测、空气质量自动监测和辐射应急监测、放射化学实验分析共6个项目，设室外无人机应急监测比赛现场，突出“数智化”能力考核。大比武设置6个比赛小组，来自省市17支代表队的204名选手参加角逐。大比武期间还集中展播了省级及16市优秀监测战歌，营造了“唱响监测战歌，争当铁军先锋”的浓厚氛围。', '侯翠荣在讲话时强调，本届大比武是对全省生态环境监测战线能力水平的实战检验，是对第三届全国生态环境监测专业技术人员大比武省级参赛队员的公开选拔。全省生态环境监测系统要以此为契机，加强专业技术人才培养，把全省监测系统的智慧和力量凝聚到加快建立现代化生态环境监测体系上来，为全面推进美丽山东建设贡献更大监测力量。', '李春田在致辞中说，滨州深入践行习近平生态文明思想，坚持生态优先、绿色发展，以打造绿色低碳高质量发展先行区“滨州样板”为牵引，推动五大千亿级优势产业集群转型升级、做优做强，发展的生态含量、绿色分量、成色质量越来越足。深入落实黄河重大国家战略，坚持标本兼治、强化监管，协同推进降碳、减污、扩绿、增长，持续打好蓝天、碧水、净土保卫战。本次活动以赛促训、以训促学、以学促干，对于提高全省生态环境监测水平、加快推进生态环境监测体系和监测能力现代化具有重要意义。滨州将以此为契机，认真学习借鉴兄弟地市的好经验、好做法，持续深入打好污染防治攻坚战，为美丽山东建设作出新的更大贡献。', '开幕式由大比武筹委会执行主任、省生态环境保护督察专员霍太英主持。生态环境部监测司、中国环境监测总站、生态环境部卫星环境应用中心、国家海洋环境监测中心、生态环境部华东核与辐射安全监督站负责同志，我市领导张瑞杰、刘荩一、申保忠、孙学森，大比武活动主办单位有关负责同志，山东省16市生态环境局及省生态环境厅有关处室、单位主要负责同志等参加活动。开幕式后，与会人员观摩了实际操作比赛现场。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>143</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组举行集体学习研讨暨党纪学习教育专题党课</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/27/art_114214_10557032.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['滨州市人民政府 要闻动态 市政协党组理论学习中心组举行集体学习研讨暨党纪学习教育专题党课', '6月25日，市政协党组理论学习中心组举行2024年度第7次集体学习研讨暨党纪学习教育专题党课。市政协党组书记、主席范连生围绕加强党的纪律建设作党纪学习教育专题党课报告。', '会上，市政协党组理论学习中心组成员学习了习近平总书记关于党纪学习教育的重要讲话和重要指示精神，以及新修订的《中国共产党纪律处分条例》，结合实际进行了深入交流研讨。', '范连生指出，在全党开展党纪学习教育，是以习近平同志为核心的党中央加强党的纪律建设、推动全面从严治党向纵深发展的重要举措，彰显了党不断推进自我革命的历史自觉和使命担当。', '范连生强调，要严明政治纪律，确保履职正确政治方向。加强党对政协工作的全面领导，严格落实“第一议题”制度，做政治上的“老实人”和“明白人”。要严明组织纪律，锤炼过硬干部队伍。始终把纪律立在先、挺在前，不断提升政协委员和机关干部“守纪律、讲规矩、重品行”的自律意识。要严明廉洁纪律，营造风清气正良好氛围。做到知敬畏、存戒惧、守底线，坚持廉洁从政、廉洁修身，永葆共产党人的清廉本色。要严明群众纪律，践行履职为民初心。协助党委、政府办好民生实事好事，让人民群众看到党纪学习教育带来的新变化、新成效。要严明工作纪律，锤炼务实工作作风。牢固树立“政协出品必是精品”的意识，聚焦滨州改革发展大局，为助推市委、市政府重大决策部署落实落地建睿智之言、献务实之策。要严明生活纪律，提升自身道德修养。坚决反对享乐主义和奢靡之风，时刻自警、自省、自励，始终做到明大德、守公德、严私德。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>143</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>全市人大财经预算监督能力提升培训班举办</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/11/art_114214_10561795.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['7月9日至10日，全市人大财经预算监督能力提升培训班举办。市人大常委会主任马俊昀参加。', '培训班邀请了山东大学教授李一花、山东财经大学教授潘明星、中国人民银行滨州市分行行长平晓冬分别围绕政府债务风险防控、新一轮税收体制改革、当前金融改革与发展等热点问题进行了详细讲解。培训内容丰富、案例生动、深入浅出，契合人大监督工作实际，对进一步提升人大干部财经预算监督能力和水平起到了积极作用。', '培训班举办前召开了全市人大财经预算工作座谈会，传达学习了省人大有关会议精神，各县（市、区）人大常委会汇报交流了人大财经预算工作开展情况、经验做法和下一步工作打算。', '会议指出，要深入学习领会习近平总书记关于人大监督的重要论述，深刻把握人大财经预算监督工作定位，紧紧围绕市委中心工作，深入贯彻落实“八个四工作法”，实行正确监督、有效监督、依法监督；要深入推进人大财经预算工作务实创新，把握好创新监督工作着力点和方式方法，坚持“一盘棋”思想，强化三级联动机制创新，确保监督务实有效；要着力加强政府投资项目预算执行情况监督、政府债务审查监督、强化供应链金融和“以税助企”专项调研、推进联网系统建设应用等重点监督工作，坚持守正创新、担当作为，不断开创人大财经预算监督工作新局面，为品质滨州建设贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>143</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>全市乡村振兴片区建设现场调研推进会议召开</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/15/art_114214_10561929.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['7月12日，全市乡村振兴片区建设现场调研推进会议召开，深入学习习近平总书记关于“三农”工作重要论述和打造乡村振兴齐鲁样板重要指示要求，贯彻落实习近平总书记视察山东重要讲话精神，学习运用“千万工程”经验，安排推进我市乡村振兴片区建设。市委副书记刘忠远出席并讲话，副市长杜玉杰主持会议。', '会议指出，要统筹推进产业振兴、人才振兴、文化振兴、生态振兴、组织振兴“五个振兴”，按照省委、省政府部署要求，推动片区内党建联合、资源整合、产业融合、人才聚合，扎实推进乡村发展、乡村建设和乡村治理，实现农民增收、集体增益，建设一批“心安乡村”，全力打造滨州特色乡村振兴齐鲁样板，为品质滨州建设作出新的更大贡献。', '会议邀请省委党校（山东行政学院）教授、山东乡村振兴研究院院长刘岳，乡伴集团合伙人、上海承乡文旅集团总经理郑德福，分别以《深化改革全面推进乡村振兴》和《打开乡村新视界》为主题授课。', '邹平市、博兴县、滨城区三河湖镇、沾化区冯家镇、惠民县淄角镇焦吴村、阳信县水落坡镇、无棣县车王镇河西崔家村负责人在会上作了交流发言。', '7月9日至11日，刘忠远率队到7个县市区、3个市属开发区调研乡村振兴片区建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>143</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>中共滨州市委十届六次全体会议举行</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/6/24/art_114214_10552976.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['（2024年6月22日，中国共产党滨州市第十届委员会第六次全体会议审议通过） 中国共产党滨州市第十届委员会第六次全体会议，于2024年6月22日在滨州举行。 出席这次全会的有，市委委员42人、候补市委委员7人。市纪委副书记和有关方面负责同志列席会议。 全会由市委常委会主持。市委书记宋永祥作了讲话。 全会以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记视察山东重要讲话精神，认真落实省委十二届六次全体会议精神，审议通过了《中共滨州市委关于深入学习贯彻习近平总书记视察山东重要讲话精神奋力谱写中国式现代化最美滨州篇章的决定》，审议了《关于全市党纪学习教育工作情况的报告》。宋永祥同志就《决定（讨论稿）》向全会作了说明。 全会指出，习近平总书记对山东发展十分关怀、寄予厚望，党的十八大以来多次到山东视察，作出一系列重要指示批示，为山东发展指方向、定目标、明方略、绘蓝图。在全面建设社会主义现代化国家开局起步的关键时期，习近平总书记再次亲临山东视察，发表重要讲话、作出重要指示，为山东发展进一步指明了前进方向。习近平总书记视察山东重要讲话，着眼全国大局、把握时代大势，深刻阐述了事关山东长远发展的一系列根本性、方向性、全局性重大问题，赋予了山东在中国式现代化建设中的新使命、新任务。习近平总书记主持召开企业和专家座谈会，就进一步全面深化改革，提出了一系列新思想、新理念、新论断，充分彰显了强烈的创新思维、深远的战略考量。全市各级党组织和广大党员干部要深刻领会习近平总书记视察山东重要讲话精神，充分认识习近平总书记视察山东重要讲话的重大意义，深刻领会习近平总书记重要讲话的内涵要义，全面系统落实习近平总书记重要讲话重要指示要求，切实用以统一思想、统一意志、统一行动，确保习近平总书记重要讲话精神在滨州落地生根、开花结果。 全会强调，习近平总书记视察山东重要讲话精神，是做好滨州工作的根本遵循。要深刻领会习近平总书记对山东工作的总定位、新要求，明晰定位责任，完整准确全面贯彻新发展理念，以进一步全面深化改革为动力，扛牢持续推进三个“走在前”滨州担当，加快建设绿色低碳高质量发展先行区“滨州样板”，打造高水平对外开放新高地，加快建设品质滨州。要集聚创新优势，培育发展新质生产力，推动传统产业高端化，推动新兴产业规模化，推动特色产业园区化，推动未来产业协同化，培优育强数字经济，大力发展先进制造业，建设现代化产业体系。要深化改革开放，纵深推进改革攻坚，着力扩大对外开放，持续优化营商环境，深化区域协调发展，培育壮大海洋经济，增强发展内生动力。要聚焦绿色低碳，打好生态环保“持久战”，打好节约集约“主动战”，打好能源转型“攻坚战”，推动发展方式转型。要聚力乡村振兴，全力推进产业增值，全力推进粮食增产，全力推进农民增收，全力推进环境增美，全力推进文明增色，全力推进治理增效，拓展共同富裕路径。要坚定文化自信，着力培育和践行社会主义核心价值观，扛牢文化“两创”担当，传承红色文化基因，推动文化事业和文化产业繁荣发展，不断开创新时代文化建设工作新局面。要完善治理体系，稳就业促增收，优服务强保障，建机制保平安，持续增进民生福祉。要统筹发展安全，着力防范化解金融风险，有效防范化解地方政府债务风险，积极稳妥防范化解房地产风险，全面筑牢安全生产防线，切实提升防灾减灾救灾能力，坚决守牢“一排底线”。要强化党建统领，加强党的创新理论武装，提升党纪学习教育实效，锻造全面过硬干部队伍，持之以恒正风肃纪反腐，凝聚强大推进合力。', '全会指出，坚定不移贯彻落实习近平总书记视察山东重要讲话精神，是当前和今后一个时期的头等大事。要一以贯之抓高品质党建，对标习近平总书记关于加强党的建设和开展党纪学习教育的重要指示，深化拓展党建过程管控机制、思想方法训练机制、监督贯通协调机制、督考评用融合机制“四项机制”，引导领导干部提升思维力、担当力、廉洁力，持续擦亮滨州党建品牌。要一以贯之抓高质量发展，对标习近平总书记关于建设现代化产业体系的重要指示，锚定高质量发展首要任务，打好招商引资、项目建设、工业经济“三大战役”，加快培育新质生产力，推进新型工业化，构建新能源体系，全力建设先进制造业强市。要一以贯之抓高水平开放，对标习近平总书记关于深化改革开放的重要指示，坚定不移突出“大开放、大改革、大发展”工作主线，释放开放新活力，夯实开放支撑力，增强开放软实力。要一以贯之抓高标准样板，对标习近平总书记关于全面推进乡村振兴的重要指示，坚持“点线面结合、一二三产融合”，让农业更有干头，让农村更有看头，让农民更有奔头，高标准打造滨州特色乡村振兴齐鲁样板。要一以贯之抓高品位文化，对标习近平总书记关于担负新时代的文化使命的重要指示，坚定文化自信，坚持守正创新，不断增强文化的时代厚度、融合深度、普惠温度，让文化更具生命力、更具高品位。要一以贯之抓高质感民生，对标习近平总书记关于让人民群众的生活越来越好的重要指示，更加突出“有感”，坐到群众炕头、想到群众心头、干到群众点头，让老百姓看到干部就在身边、感到方便就在身边、觉得幸福就在身边。要一以贯之抓高层次平安，对标习近平总书记关于统筹发展和安全的重要指示，抓牢“心安”这一更高层次的平安，建设全国首个“心安城市”，做到防范有力、化解有方、治理有效，让每个人在滨州都能心安顺遂、人生出彩。 全会认为，全市党纪学习教育开展以来，市委常委会深入学习领会习近平总书记关于全面加强党的纪律建设的重要论述、习近平总书记关于党纪学习教育的重要讲话和重要指示精神、习近平总书记视察山东重要讲话精神，认真贯彻落实党中央部署和省委要求，在省委党纪学习教育工作专班有力指导下，紧紧围绕目标要求和工作安排，突出主题主线、高站位落实政治任务，突出入脑入心、高标准抓实理论学习，突出震慑震撼、高质量推进警示教育，突出精准精细、高效能开展解读培训，突出实绩实效、高要求加强领导指导，切实做到学纪、知纪、明纪、守纪，全市党纪学习教育进展顺利、成效明显。下一步，要在推动学习入脑入心上持续发力，在加强警示教育上持续发力，在抓好解读培训上持续发力，在强化责任落实上持续发力，在推动干事创业上持续发力，推动全市党纪学习教育不断走深走实。 全会强调，各级各部门要把学习贯彻习近平总书记重要讲话精神激发出来的巨大热情，转化为担当实干的具体行动，转化为做好当前各项工作的实际成效。要对照目标任务，倒排工期、打紧节奏，突出抓好经济运行、“三大战役”、民生实事、风险防范等当前重点工作，全力争取上半年时间任务“双过半”。 全会号召，全市各级党组织和广大党员干部要更加紧密地团结在以习近平同志为核心的党中央周围，坚定扛牢“走在前、挑大梁”的使命担当，实干争先、奋勇向前，奋力谱写中国式现代化最美滨州篇章，以滨州一域之精彩，为中国式现代化大局添光彩！']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>143</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市财政局青年研习社青春理论学习小组举办学习贯彻二十大富强滨州我担当学习分享会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://cz.binzhou.gov.cn/art/2022/11/28/art_120447_10287507.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['滨州市财政局 要闻动态 市财政局青年研习社“青春”理论学习小组举办“学习贯彻二十大·富强滨州我担当”学习分享会', '市财政局青年研习社“青春”理论学习小组举办“学习贯彻二十大·富强滨州我担当”学习分享会', '市财政局青年研习社“先锋”理论学习小组举办“学习贯彻二十大·富强滨州我担当”学习分享会', '市财政局青年研习社“力量”理论学习小组举办“学习贯彻党的二十大·富强滨州我担当”学习分享会']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>143</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>宋永祥到滨城区调研重点项目建设和经济社会发展情况</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/15/art_114214_10561925.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['7月12日，市委书记宋永祥到滨城区调研重点项目建设和经济社会发展情况。他强调，要深入学习贯彻习近平总书记视察山东重要讲话精神，按照市委全会部署，坚定扛牢“走在前、挑大梁”的使命担当，加快重点项目建设，保持经济运行向好态势，全面冲刺三季度，为完成全年任务目标打下坚实基础。', '在山东赢新化工有限公司绿色化工延伸产业链项目现场，宋永祥查看项目试生产运行情况，详细了解项目建设、装置运行、安全生产、环境保护等情况。据悉，该项目生产工艺技术国内领先，生产过程全自动化控制，全部选用节能设备和清洁工艺，产品收率高产废少，单位能耗低，装置产生的余热、有机废气等可循环利用。', '在滨州九环新越新能源材料有限责任公司年产40万吨磷酸铁连续生产项目现场，宋永祥查看生产车间施工现场，详细了解项目建设进展、施工计划及投产等情况。据悉，该项目生产工艺国内同行业领先、安全环保，生产过程不产生危废气体及排放物，生产用水循环使用。项目利用自主发明专利，研发磷酸铁、磷酸铁锂，产品性能达到国际一流水平。', '宋永祥强调，各级各部门要聚焦全年任务目标，打好招商引资、项目建设、工业经济“三大战役”，精准发力突破，巩固经济增长态势，全面冲刺三季度，确保各项工作走在前。对各级重点项目，要紧盯时间节点，倒排工期、压茬推进，做好要素服务保障，帮助企业解决困难问题，在保证安全、质量和环保的前提下，抢抓施工进度，尽快形成更多实物量、投资量，掀起大抓项目、大抓工业的热潮。他要求，各企业要严格落实主体责任，规范安全生产操作，加大风险隐患排查整治力度，切实防范遏制安全事故发生。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>143</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>全市党政联席扩大会议召开</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-07-10</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/10/art_114214_10561768.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['7月9日上午，全市党政联席（扩大）会议召开。市委书记宋永祥主持会议并讲话，市委副书记、市长李春田讲工作意见，市人大常委会主任马俊昀、市政协主席范连生、市委副书记刘忠远出席并发言。', '关于党纪学习教育，会议要求，要坚持标准不降、劲头不松、力度不减，在学习再深化、成果快转化、机制要固化上持续下功夫，把党纪学习教育中的好思路、好做法、好经验固化为长效常态制度机制，把党纪学习教育激发出来的动力转化为品质滨州建设的实绩实效，不断推动党纪学习教育走深走实。', '关于经济运行，会议要求，要认真盘点分析上半年“双过半”目标完成情况，聚焦短板不足，深入分析研判，确保有的放矢、精准施策、全面冲刺。要聚焦全年目标任务，紧盯工业项目、技改项目、省市县重点项目靠上服务保障，“一企一策”助企纾困，确保快开工、快建设、快投产、快达产。', '关于“三大战役”，会议要求，招商引资要进一步提效，紧盯项目开工率、投资计划完成率，推动项目成熟一个、签约一个，落地一个、开工一个；项目建设要进一步提速，紧盯时间节点，倒排工期、压茬推进，在保证安全、质量和环保的前提下，尽快形成更多实物量、投资量；工业经济要进一步提质，继续落实落细《决战决胜工业经济十大举措》，以政策促增长，持续夯实工业经济稳增长的基础。', '关于防汛抗旱，会议要求，要严防旱涝急转，密切关注天气变化，加强监测预警研判，加强隐患排查整治，重点抓好河道、水库、低洼易涝区、忌水企业等重点区域，做到排查不留死角、整改不留后患、问题不能反弹，确保各项工作万无一失。', '关于风险防范，会议要求，在生态环保方面，要围绕源头替代、过程管控、末端治理等关键环节，加强大气和水污染防治，多措并举提高环境质量。在假期安全方面，要把学生暑期安全摆在突出位置，抓好家庭、学校、社会三方的衔接配合，做好宣传教育、关爱帮扶等工作，共同织密暑期“安全网”。在安全生产方面，要突出重点领域、重点环节、企业主体、打非治违“四个重点”，持续抓好安全生产整治月集中行动，全过程、全方位、全环节排查整治各类风险隐患，切实防范遏制安全事故发生。', '市法院院长、市检察院检察长，市人大、市政府、市政协秘书长，各县市区委书记、县市区长，各市属开发区党工委书记、管委会主要负责同志，市直部门单位主要负责同志，市委、市政府督查室负责同志等参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>143</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>李强主持召开国务院常务会议</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-07-06</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/6/art_266228_10561598.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['听取关于2023年度中央预算执行和其他财政收支审计查出主要问题及初步整改情况的汇报', '新华社北京7月5日电 国务院总理李强7月5日主持召开国务院常务会议，研究部署推进数字经济高质量发展有关工作，审议通过《全链条支持创新药发展实施方案》，讨论进一步推动西部大开发工作，研究支持天津滨海新区高质量发展的政策措施，听取关于2023年度中央预算执行和其他财政收支审计查出主要问题及初步整改情况的汇报。', '会议指出，要从全局高度认识和推动数字经济高质量发展，促进数字技术和实体经济深度融合，推进数字产业化、产业数字化，全面赋能经济社会发展。要坚持改革创新和开放合作，持续优化数字经济发展环境，协同完善数据基础制度和数字基础设施，推进数据要素市场化配置。要提升平台企业创新能力，促进平台经济持续健康发展。', '会议指出，发展创新药关系医药产业发展，关系人民健康福祉。要全链条强化政策保障，统筹用好价格管理、医保支付、商业保险、药品配备使用、投融资等政策，优化审评审批和医疗机构考核机制，合力助推创新药突破发展。要调动各方面科技创新资源，强化新药创制基础研究，夯实我国创新药发展根基。', '会议指出，西部地区在全国改革发展稳定大局中举足轻重。要深入学习贯彻习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神，细化分解任务、逐项抓好落实、主动靠前服务，支持西部地区不断提升区域整体实力和可持续发展能力。', '会议指出，滨海新区是服务京津冀协同发展的重要战略支点。要加强滨海新区与京冀相关地区的政策衔接、项目共建，依托优势构建现代化产业体系，优化提升港航功能，深化自贸试验区改革创新，支撑京津冀更好发挥高质量发展动力源作用。', '会议指出，对2023年度中央预算执行和其他财政收支审计查出的问题，要强化整改责任，全面整改到位，该追回资金的及时追回，该问责的严肃问责，该完善制度的尽快完善。要把审计整改作为改进工作的重要抓手，以整改促落实，以整改提效能，推动各项政策措施落地见效。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>143</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市政府常务会议召开</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/5/art_114214_10556432.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['会议学习了习近平总书记在全国科技大会、国家科学技术奖励大会、两院院士大会上的重要讲话精神。会议强调，要强化科创引领，发挥市委科创委实体化运行优势，优化“五主并举”科创生态，集聚创新要素，深化创新协同，切实推动科创引领经济发展提质、城市品质提升。要强化平台应用，切实发挥好高能级科创平台的集聚引领效应，联合开展科研攻关、协同培养科技人才，推动产学研用融通创新。要强化成果转化，把科技创新作为产业创新的核心驱动，推进更多成果转化落地，培育发展新质生产力，着力提升产业竞争力。', '会议传达学习了全省深化“高效办成一件事”工作现场推进会议精神，并研究贯彻落实意见。会议强调，要提高站位抓落实，深刻认识“高效办成一件事”是优化政务服务、提升行政效能的重要抓手，提高站位、靠前发力，以机关效能的提速提标带动政务服务的提质提效。要细化责任快推进，坚持清单化管理，密切协同配合，细化落实责任，切实凝聚起齐抓共管的工作合力。要创新创优出亮点，创新推动、拓展延伸一批特色鲜明、需求迫切的“一件事”新场景，打造更多全省、全国领先的滨州做法、滨州经验。', '会议传达学习了2024山东省文旅产业高质量发展大会精神，研究了贯彻落实意见，审议了《关于促进文旅深度融合推动旅游业高质量发展的实施意见（送审稿）》。会议强调，要推动文旅融合双向赋能，坚持走好以文塑旅、以旅彰文的融合路径，深入挖掘滨州自然之美、文化之美，努力构建全域旅游经济圈。要推动文旅业态守正创新，充分发挥滨州文旅资源比较优势，解放思想、激活思维，创新打造文旅新业态，以业态创新力提升产业竞争力。要推动文旅服务提质提效，全方位整合提升“吃住行游购娱”链条，全面提升文旅体验感和舒适度。要推动文旅措施落地落实，统筹协调、细化任务、定期调度，强化政策引导，积极主动作为，推动各项措施高质高效落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>143</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>省政协副主席孙继业来滨调研</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/11/art_114214_10561793.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['7月10日，省政协副主席孙继业一行来我市围绕“关于‘三位一体’融合发展培养高素质医学人才的建议”重点提案进行调研。市委书记宋永祥、市政协主席范连生陪同。', '孙继业一行到滨州医学院、滨州医学院附属医院、滨州市中医医院、彭李街道社区卫生服务中心进行了实地调研，并召开重点提案督办座谈会，听取我市相关工作情况汇报，介绍提案案由，汇报提案办理落实情况，进行互动交流。', '孙继业对滨州“三位一体”融合发展培养高素质医学人才工作给予高度肯定。他强调，要深入学习贯彻习近平总书记关于教育的重要论述，切实担负起高素质医学人才培养的重要使命。增强系统观念，深化教育科技人才体制机制一体化改革，完善科教协同育人机制，强化“新医科”建设，尊重创新人才成长规律，培养造就一支规模宏大、结构合理、素质优良的创新型人才队伍。要提高政治站位，增强提案办理工作的主动性。充分认识办好重点提案对于推动经济社会发展的重要作用，不断拓展协商渠道，着力增强重点提案办理的实际成效，为谱写中国式现代化山东篇章贡献力量。要创新办理方式，注重提案办理工作实效。建立健全办理机制，将重点提案办理工作纳入重要工作日程，主动与业务工作一起谋划、一起部署、一起推进，真正做到“办好一件提案、解决好一类问题、推动一方工作、造福一方百姓”，推动提案办理工作走深走实，以高质量提案办理助力高质量发展。', '省政协副秘书长王琳，省政协常委、教科卫体委员会主任燕翔，省政协常委、教科卫体委员会副主任武继彪、王世农，全国政协委员、省政协委员、山东第一医科大学（省医科院）党委书记刘思金；市委常委、秘书长丁锋，市政府副市长杜玉杰，市政协副主席刘庆敖，滨州医学院党委书记孙祥军，市政协秘书长李荣舜参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>143</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.binzhou.gov.cn/art/2024/7/8/art_114214_10561639.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['7月5日下午，市委常委会召开会议，学习习近平总书记近期重要讲话精神，研究审议有关工作事项。市委书记宋永祥主持会议并讲话。', '会议学习了习近平总书记在6月27日中共中央政治局会议上的讲话精神。会议指出，要深入学习领会习近平总书记重要讲话精神，坚持把党的领导贯穿改革各方面全过程，结合我市实际，进一步明确改革方向和重点，确保改革始终沿着正确方向前进。要始终把改革摆在更加突出位置，围绕推进中国式现代化的滨州实践，认真研究谋划我市贯彻落实的思路举措，切实把进一步全面深化改革的战略部署转化为推动经济社会高质量发展的强大动力。要坚持主动改革、精准改革、集成改革，以钉钉子精神抓好各项改革任务落实，围绕科技创新、民营经济、民生改善、基层治理等重点领域，拿出更多务实、具体、管用的创新举措，确保各项改革部署在我市落地见效。', '会议研究了全市生态环境工作。会议指出，要对照美丽滨州建设的战略定位、重点任务和建设指标，逐一细化分解，明确责任部门、具体事项，制订年度实施方案，切实把“规划图”变成“施工图、实景图”。要统筹各领域资源、汇聚各方面力量，推动各项任务落实落地。要统筹抓好生态环境保护和绿色低碳发展，协同推进降碳、减污、扩绿、增长，精准治污、科学治污、依法治污，让美丽滨州底色更加靓丽。', '会议研究了全市文旅工作。会议要求，要抓住发展机遇，加强顶层设计、明晰发展路径、完善保障措施，发挥比较优势，加快把资源优势转化为发展优势，推动文旅产业高质量发展行稳致远。要做强文旅产业，实施重点项目带动战略，加大招商引资，丰富产品供给，推动创新发展，以数字化赋能文旅高质量发展。要做好融合文章，坚持以文塑旅，以旅彰文，突出全业态融合，推出新产品、拓展新服务、形成新动能，释放旅游资源大潜力，做大文旅产业大蛋糕，打造文旅融合大平台，不断开创文旅产业融合发展新局面。', '会议研究了当前重点工作。会议要求，要抓好经济运行，坚持优存量和扩增量两手抓，促消费和扩投资两手抓，稳外贸和引外资两手抓，优政策和优服务两手抓，多措并举巩固和增强经济增长态势。要抓好“三大战役”，持续营造节会招商、活动招商的浓厚氛围，着力提高签约项目落地率、落地项目开工率、投资计划完成率，开展项目建设投产擂台赛，紧盯规上工业企业稳存量，紧盯新纳统企业和新投产项目扩增量，夯实工业经济基本盘。要抓好安全稳定，从严从实抓好金融风险、安全生产、社会治安等各领域风险防范化解工作，坚决守牢“一排底线”，确保社会大局和谐稳定。']</t>
         </is>
